--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3954907.217300213</v>
+        <v>4062167.16421961</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498526</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7146012.218279935</v>
+        <v>7117606.134004396</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>64.98765364255827</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>93.70579911737474</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.781160222249673</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,13 +876,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>20.16684617628163</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>352.923651287905</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>328.8106839659015</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>168.8032110970388</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>216.3593707943292</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>205.4102970148201</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>365.9755282592411</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>26.68197347016108</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>196.9899243971805</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1543,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>140.575894358866</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>151.6499090771556</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>114.0764389318045</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>186.2665183923636</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0.6452826062320446</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>5.890337106877586</v>
       </c>
       <c r="V22" t="n">
-        <v>105.321942911332</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>68.41584059195385</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="27">
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>161.0175085755505</v>
+        <v>79.7011924439779</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>107.7122866515517</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808293</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>101.5168569947387</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652574</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>105.8460632289458</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652583</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187883</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972053</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>163.1485391341861</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>20.92847288552893</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541852</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652577</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>115.7228684476127</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>527.8767859460534</v>
+        <v>1532.706951134003</v>
       </c>
       <c r="C2" t="n">
-        <v>527.8767859460534</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="D2" t="n">
-        <v>527.8767859460534</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="E2" t="n">
-        <v>527.8767859460534</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F2" t="n">
-        <v>116.8908811564458</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2258.941364665197</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2258.941364665197</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1906.172709395083</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218651</v>
+        <v>1532.706951134003</v>
       </c>
       <c r="Y2" t="n">
-        <v>527.8767859460534</v>
+        <v>1532.706951134003</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.04593830764924</v>
+        <v>623.1181309250601</v>
       </c>
       <c r="C4" t="n">
-        <v>53.04593830764924</v>
+        <v>623.1181309250601</v>
       </c>
       <c r="D4" t="n">
-        <v>53.04593830764924</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="E4" t="n">
-        <v>53.04593830764924</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F4" t="n">
-        <v>53.04593830764924</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>53.04593830764924</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>53.04593830764924</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
         <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426272</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056666</v>
+        <v>804.7665957552998</v>
       </c>
       <c r="X4" t="n">
-        <v>53.04593830764924</v>
+        <v>804.7665957552998</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.04593830764924</v>
+        <v>804.7665957552998</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1313.273607737845</v>
+        <v>1110.088185601309</v>
       </c>
       <c r="C5" t="n">
-        <v>944.3110907974335</v>
+        <v>777.9561815953475</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974335</v>
+        <v>777.9561815953475</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>777.9561815953475</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2022.530799662409</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>1669.762144392295</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>1669.762144392295</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y5" t="n">
-        <v>1669.762144392295</v>
+        <v>1110.088185601309</v>
       </c>
     </row>
     <row r="6">
@@ -4638,10 +4640,10 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
@@ -4656,16 +4658,16 @@
         <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>220.18296949591</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="C7" t="n">
-        <v>51.2467865680031</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>51.2467865680031</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4747,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1166.725671712527</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U7" t="n">
-        <v>1166.725671712527</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V7" t="n">
-        <v>912.0411835066404</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="W7" t="n">
-        <v>622.6240134696799</v>
+        <v>905.8044827888993</v>
       </c>
       <c r="X7" t="n">
-        <v>622.6240134696799</v>
+        <v>677.814931890882</v>
       </c>
       <c r="Y7" t="n">
-        <v>401.8314343261497</v>
+        <v>677.814931890882</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1964.273285499504</v>
+        <v>1471.210842731384</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.310768559092</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D8" t="n">
-        <v>1237.045069952341</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E8" t="n">
-        <v>851.2568173540972</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="W8" t="n">
-        <v>2741.012457539437</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="X8" t="n">
-        <v>2741.012457539437</v>
+        <v>1857.810682795506</v>
       </c>
       <c r="Y8" t="n">
-        <v>2350.873125563625</v>
+        <v>1857.810682795506</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>884.9085321458207</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.8377936138381</v>
+        <v>545.9899953984376</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>377.0538124705307</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>226.937173058195</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>226.937173058195</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>226.937173058195</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>226.937173058195</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>78.1982749217012</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>766.7825745419677</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>766.7825745419677</v>
       </c>
       <c r="Y10" t="n">
-        <v>163.8377936138381</v>
+        <v>545.9899953984376</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5023,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5127,13 +5129,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.9786782557277</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278208</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1902.510931370362</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1647.826443164475</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1358.409273127515</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X13" t="n">
-        <v>1130.419722229497</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y13" t="n">
-        <v>909.6271430859674</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5309,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5473,13 +5475,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1318.472639455077</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1090.48308855706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>869.6905094135296</v>
       </c>
     </row>
     <row r="17">
@@ -5504,22 +5506,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>726.955532171245</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>558.0193492433381</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2008.914547111442</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1719.83932045564</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1465.154832249753</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="W19" t="n">
-        <v>1175.737662212792</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X19" t="n">
-        <v>947.7481113147751</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y19" t="n">
-        <v>726.955532171245</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="20">
@@ -5744,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>662.1522880254209</v>
+        <v>3260.450525729773</v>
       </c>
       <c r="C22" t="n">
-        <v>493.2161050975141</v>
+        <v>3091.514342801866</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>2941.397703389531</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>2793.484609807138</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>2479.398563024107</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>4434.982778844408</v>
       </c>
       <c r="V22" t="n">
-        <v>1582.000052934169</v>
+        <v>4180.298290638521</v>
       </c>
       <c r="W22" t="n">
-        <v>1292.582882897208</v>
+        <v>3890.881120601561</v>
       </c>
       <c r="X22" t="n">
-        <v>1064.593331999191</v>
+        <v>3662.891569703543</v>
       </c>
       <c r="Y22" t="n">
-        <v>843.8007528556607</v>
+        <v>3442.098990560013</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>2726.914133601551</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>3324.292621228103</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>3445.398957336244</v>
       </c>
       <c r="O24" t="n">
-        <v>2222.001901828445</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445482</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>3342.53722908186</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>3173.601046153953</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>3023.484406741617</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>4404.185983673938</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>4115.110757018136</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>3860.426268812249</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>3791.319359123407</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>3563.32980822539</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>3342.53722908186</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>3194.624135499466</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>3597.065179473236</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>3597.065179473236</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>3376.272600329706</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,7 +6475,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6543,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6783,19 +6785,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>542.9134462654469</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>950.1865537761984</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="35">
@@ -6917,67 +6919,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L36" t="n">
-        <v>671.2000270096659</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>2985.713220456423</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>2878.798005073649</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>3388.154264430193</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>3388.154264430193</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>3167.361685286663</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,40 +7186,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7390,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7494,19 +7496,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319331</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656825</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150031</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942664</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580124</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345486</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7637,61 +7639,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2330.071297269541</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2330.071297269541</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>240.4465442417431</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8304,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>240.4465442417437</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0304328515147</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>168.7434581780633</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10124,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>-1.550534989991394e-13</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>145.6085800303781</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>134.8730892594354</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>172.4465594047865</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>31.13893193492467</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>251.4923607175959</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>280.2941372823665</v>
       </c>
       <c r="V22" t="n">
-        <v>146.815700412496</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>218.1071577446372</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>125.5054897610405</v>
+        <v>206.8218058926131</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>40.90318636666066</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>65.72996410388916</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>61.40075786968201</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>62.5611162548511</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>65.3034175540319</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>621880.7670483359</v>
+        <v>627822.6945494066</v>
       </c>
     </row>
     <row r="5">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>611459.3894176278</v>
+        <v>611459.3894176279</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>621880.7670483359</v>
+        <v>611459.3894176279</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>621880.7670483359</v>
+        <v>611459.3894176279</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>621880.7670483359</v>
+        <v>611459.3894176278</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>621880.7670483359</v>
+        <v>611459.3894176278</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>621880.7670483359</v>
+        <v>611459.3894176278</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642836</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.7698642833</v>
       </c>
-      <c r="C2" t="n">
-        <v>821041.7698642834</v>
-      </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642836</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="F2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="F2" t="n">
-        <v>807146.5996900062</v>
-      </c>
       <c r="G2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="H2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="J2" t="n">
         <v>807146.5996900059</v>
       </c>
-      <c r="H2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>807146.5996900063</v>
       </c>
-      <c r="J2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="K2" t="n">
-        <v>821041.769864285</v>
-      </c>
       <c r="L2" t="n">
-        <v>821041.7698642837</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.769864283</v>
+        <v>807146.5996900058</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642835</v>
+        <v>807146.599690006</v>
       </c>
       <c r="O2" t="n">
-        <v>821041.7698642847</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>507485.4416245455</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,28 +26383,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363178</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>86084.45926805862</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707306</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="K4" t="n">
-        <v>14888.28375980083</v>
+        <v>6897.424496707333</v>
       </c>
       <c r="L4" t="n">
-        <v>14888.28375980083</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="M4" t="n">
-        <v>14888.28375980082</v>
+        <v>6897.424496707323</v>
       </c>
       <c r="N4" t="n">
-        <v>14888.28375980084</v>
+        <v>6897.424496707279</v>
       </c>
       <c r="O4" t="n">
-        <v>14888.28375980084</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707396</v>
+        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-518557.5129831063</v>
+        <v>-518557.5129831055</v>
       </c>
       <c r="C6" t="n">
-        <v>596194.2705928138</v>
+        <v>596194.2705928136</v>
       </c>
       <c r="D6" t="n">
-        <v>434396.2295944933</v>
+        <v>596194.2705928136</v>
       </c>
       <c r="E6" t="n">
-        <v>373714.1835620367</v>
+        <v>191641.2037448463</v>
       </c>
       <c r="F6" t="n">
-        <v>699126.6453693918</v>
+        <v>699126.6453693917</v>
       </c>
       <c r="G6" t="n">
-        <v>699126.6453693914</v>
+        <v>699126.6453693915</v>
       </c>
       <c r="H6" t="n">
         <v>699126.6453693917</v>
       </c>
       <c r="I6" t="n">
+        <v>699126.6453693914</v>
+      </c>
+      <c r="J6" t="n">
+        <v>531521.4675594089</v>
+      </c>
+      <c r="K6" t="n">
         <v>699126.6453693919</v>
       </c>
-      <c r="J6" t="n">
-        <v>531521.4675594093</v>
-      </c>
-      <c r="K6" t="n">
-        <v>683561.652256937</v>
-      </c>
       <c r="L6" t="n">
-        <v>654695.4002423767</v>
+        <v>699126.6453693919</v>
       </c>
       <c r="M6" t="n">
-        <v>617934.342315055</v>
+        <v>566519.3516404647</v>
       </c>
       <c r="N6" t="n">
-        <v>702989.3702505673</v>
+        <v>699126.6453693915</v>
       </c>
       <c r="O6" t="n">
-        <v>702989.3702505685</v>
+        <v>699126.6453693918</v>
       </c>
       <c r="P6" t="n">
-        <v>699126.6453693918</v>
+        <v>699126.645369392</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,13 +26807,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>346.5600491303957</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>157.3394510110873</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>103.0154349816509</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>266.3561521603094</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29.81019037557559</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>36.46220780510606</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>51.94548490017314</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>70.16362754226185</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>159.8625947561875</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>40.90051748247032</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>78.11462173373947</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.5947289549143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30049,7 +30051,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-8.360392837795219e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30235,10 +30237,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-1.672078567559044e-12</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30286,7 +30288,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,16 +31849,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32075,10 +32077,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P15" t="n">
-        <v>156.3072281639545</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,10 +32314,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,16 +32326,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>253.671344515799</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>288.8958573929167</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>309.9424824173362</v>
       </c>
       <c r="P30" t="n">
-        <v>156.3072281639545</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,34 +33505,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>353.2560498238272</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>324.9782573297443</v>
       </c>
       <c r="L36" t="n">
-        <v>570.6116741576916</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>518.4394551593577</v>
       </c>
       <c r="N39" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34214,34 +34216,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209193</v>
       </c>
       <c r="M42" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>285.8867128925984</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>607.3778765237837</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35024,19 +35026,19 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>631.6436438346176</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>466.4238188159136</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35425,7 +35427,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924728</v>
@@ -35495,16 +35497,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35668,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P15" t="n">
-        <v>22.33282074962425</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>122.3296324324657</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>157.5541453095834</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="P30" t="n">
-        <v>22.33282074962425</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>302.474889585677</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>213.2742757378057</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>187.1368183553853</v>
       </c>
       <c r="L36" t="n">
-        <v>432.0572943778175</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>376.3054212373394</v>
       </c>
       <c r="N39" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>110.1905571410451</v>
       </c>
       <c r="M42" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
